--- a/Excel/Test.xlsx
+++ b/Excel/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\TableTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF8594-B146-4FE9-B6FD-AEE45EFF22BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582FC52E-69E2-4EDB-8AD8-33386E2B2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>1003,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字
+#标记属性名设置多主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,9 +240,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -521,23 +529,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -552,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -572,27 +581,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -608,12 +617,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -629,11 +637,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -649,11 +657,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -669,11 +677,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -689,7 +697,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -704,12 +712,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CE0111-4300-4C20-9DEC-FCFFD44D1111}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,7 +771,7 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -776,7 +785,7 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -790,7 +799,7 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1004</v>
       </c>
     </row>
